--- a/public/excel/66064222.xlsx
+++ b/public/excel/66064222.xlsx
@@ -149,11 +149,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -458,115 +464,126 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="3"/>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3">
+      <c r="M3" s="2"/>
+      <c r="N3" s="3">
         <v>66064222</v>
       </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
         <v>2019</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4">
+      <c r="M4" s="2"/>
+      <c r="N4" s="3">
         <v>3</v>
       </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:16">
       <c r="B8" s="1"/>
@@ -576,14 +593,14 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -592,173 +609,251 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K9"/>
-      <c r="M9"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:16">
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>2</v>
       </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10">
         <v>6</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K10"/>
-      <c r="M10"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:16">
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>3</v>
       </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K11"/>
-      <c r="M11"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:16">
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>4</v>
       </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12">
         <v>6</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K12"/>
-      <c r="M12"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:16">
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>5</v>
       </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13">
         <v>6</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K13"/>
-      <c r="M13"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:16">
       <c r="B14">
         <v>6</v>
       </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14">
         <v>6</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K14"/>
-      <c r="M14"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:16">
       <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>7</v>
       </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15">
         <v>6</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K15"/>
-      <c r="M15"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>8</v>
       </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16">
         <v>6</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K16"/>
-      <c r="M16">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
         <v>1</v>
       </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>9</v>
       </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17">
         <v>6</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K17"/>
-      <c r="M17"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
@@ -767,34 +862,28 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
